--- a/data/trans_dic/MCS12_SP_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R2-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,28%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,96%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,65%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,99%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,44%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,96%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,05%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,64%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,83%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>2,82; 13,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>14,35; 29,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>12,77; 27,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,64</t>
+          <t>14,35; 31,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>6,94; 18,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>21,91; 40,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>20,49; 37,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>17,52; 27,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>6,53; 14,04</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>20,24; 32,17</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>18,63; 29,35</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>17,47; 26,38</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,35%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,1%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,21%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,03%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,22%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,77%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,43%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,6%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,75%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>12,8; 18,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>16,69; 23,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>14,98; 21,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>17,82; 24,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>18,66; 25,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>31,32; 39,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>23,62; 31,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>23,4; 29,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>16,7; 21,08</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>24,94; 30,29</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>20,04; 25,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>21,5; 26,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,5%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,9%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,28%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,69%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,62%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,84%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,04%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,61%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,29%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,61%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,71%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>16,89; 21,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>19,85; 25,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>14,08; 18,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>14,23; 20,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>26,6; 32,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>28,63; 34,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>21,99; 27,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>25,77; 30,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>22,7; 26,69</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>25,26; 29,4</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>18,87; 22,59</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>20,72; 24,82</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,61%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,88%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,97%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,95%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,58%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,86%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,71%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,72%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,66%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,51%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>14,32; 20,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>17,58; 23,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>15,84; 21,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>18,18; 25,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>22,66; 29,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>27,63; 34,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>23,2; 29,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>25,72; 60,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>19,43; 23,95</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>23,43; 28,09</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>20,55; 25,01</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>23,59; 48,81</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,02%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,79%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,29%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,34%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,02%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,85%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,51%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,76%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,16%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,56%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,57%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,46%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>19,61; 24,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>22,12; 27,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>19,63; 25,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>17,83; 23,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>25,17; 31,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>30,83; 36,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>25,87; 31,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>27,16; 32,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>23,2; 27,05</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>27,49; 31,66</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>23,44; 27,53</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>23,63; 27,41</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,63%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,28%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,86%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,89%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,55%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,68%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,77%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,87%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,65%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,58%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,9%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,18%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>17,28; 20,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>20,91; 23,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>17,53; 20,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>18,46; 21,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>25,0; 28,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>31,02; 34,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>25,2; 28,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>27,28; 36,69</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>21,59; 23,76</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>26,56; 28,73</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>21,96; 24,05</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>23,65; 29,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/MCS12_SP_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R2-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en el primer cuartil de la puntuación del componente de salud mental (SF12)</t>
+          <t>Población por debajo de la mediana de la puntuación del componente de salud mental (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>23,84%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>57,38%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>44,09%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21,65%</t>
+          <t>38,02%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>32,48%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,99%</t>
+          <t>60,51%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>28,44%</t>
+          <t>55,92%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21,96%</t>
+          <t>40,82%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>28,11%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>26,05%</t>
+          <t>58,92%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>23,64%</t>
+          <t>49,92%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>21,83%</t>
+          <t>39,6%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,82; 13,15</t>
+          <t>15,55; 32,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,35; 29,0</t>
+          <t>48,23; 66,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,77; 27,39</t>
+          <t>34,63; 54,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,35; 31,31</t>
+          <t>28,46; 48,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,94; 18,39</t>
+          <t>25,23; 41,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,91; 40,93</t>
+          <t>50,68; 69,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,49; 37,84</t>
+          <t>46,33; 64,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,52; 27,51</t>
+          <t>33,65; 47,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,53; 14,04</t>
+          <t>22,59; 33,98</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,24; 32,17</t>
+          <t>52,34; 65,42</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,63; 29,35</t>
+          <t>43,43; 55,68</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,47; 26,38</t>
+          <t>34,07; 45,58</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>39,52%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
+          <t>44,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>47,78%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>37,21%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,21%</t>
+          <t>49,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>35,03%</t>
+          <t>61,89%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>27,09%</t>
+          <t>55,04%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,22%</t>
+          <t>45,25%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18,77%</t>
+          <t>44,71%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>27,43%</t>
+          <t>52,97%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>22,6%</t>
+          <t>51,41%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>23,75%</t>
+          <t>41,38%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,8; 18,26</t>
+          <t>35,21; 43,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,69; 23,51</t>
+          <t>39,44; 47,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,98; 21,72</t>
+          <t>43,46; 52,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,82; 24,28</t>
+          <t>32,81; 41,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,66; 25,91</t>
+          <t>45,94; 53,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,32; 39,41</t>
+          <t>57,7; 65,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,62; 31,14</t>
+          <t>50,68; 59,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,4; 29,45</t>
+          <t>41,79; 48,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,7; 21,08</t>
+          <t>41,76; 47,4</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>24,94; 30,29</t>
+          <t>49,94; 55,82</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>20,04; 25,18</t>
+          <t>48,55; 54,51</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>21,5; 26,0</t>
+          <t>38,53; 44,05</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,5%</t>
+          <t>42,86%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,9%</t>
+          <t>44,14%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>44,69%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>36,41%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>29,69%</t>
+          <t>55,86%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>31,62%</t>
+          <t>54,59%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>24,84%</t>
+          <t>52,5%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>28,04%</t>
+          <t>46,41%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>24,61%</t>
+          <t>49,38%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>27,29%</t>
+          <t>49,4%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>20,61%</t>
+          <t>48,63%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>41,45%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,89; 21,95</t>
+          <t>39,45; 46,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,85; 25,79</t>
+          <t>40,87; 47,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,08; 18,72</t>
+          <t>41,51; 48,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,23; 20,01</t>
+          <t>29,54; 40,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,6; 32,88</t>
+          <t>52,53; 59,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,63; 34,56</t>
+          <t>51,34; 57,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,99; 27,54</t>
+          <t>48,92; 55,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>25,77; 30,63</t>
+          <t>43,55; 49,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,7; 26,69</t>
+          <t>47,12; 51,83</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>25,26; 29,4</t>
+          <t>47,07; 51,61</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>18,87; 22,59</t>
+          <t>46,34; 50,72</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>20,72; 24,82</t>
+          <t>38,02; 43,85</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,41%</t>
+          <t>42,96%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20,35%</t>
+          <t>44,17%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>41,55%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>21,88%</t>
+          <t>39,94%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,97%</t>
+          <t>53,15%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>30,95%</t>
+          <t>55,57%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>26,58%</t>
+          <t>47,49%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>35,86%</t>
+          <t>54,6%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>21,71%</t>
+          <t>48,08%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>25,72%</t>
+          <t>49,94%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>22,66%</t>
+          <t>44,57%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>29,51%</t>
+          <t>47,94%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,32; 20,65</t>
+          <t>38,88; 46,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,58; 23,7</t>
+          <t>40,31; 47,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,84; 21,81</t>
+          <t>38,02; 45,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,18; 25,07</t>
+          <t>35,7; 44,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,66; 29,3</t>
+          <t>49,31; 57,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,63; 34,54</t>
+          <t>51,85; 59,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,2; 29,9</t>
+          <t>43,86; 50,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,72; 60,41</t>
+          <t>46,8; 69,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,43; 23,95</t>
+          <t>45,67; 51,05</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23,43; 28,09</t>
+          <t>47,04; 52,76</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>20,55; 25,01</t>
+          <t>42,08; 47,18</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>23,59; 48,81</t>
+          <t>43,12; 60,58</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>22,02%</t>
+          <t>45,58%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>24,79%</t>
+          <t>49,55%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>22,29%</t>
+          <t>50,93%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>42,95%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>28,02%</t>
+          <t>54,71%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>33,85%</t>
+          <t>59,99%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>28,51%</t>
+          <t>56,48%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>29,76%</t>
+          <t>53,68%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>25,16%</t>
+          <t>50,37%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>29,56%</t>
+          <t>55,04%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>25,57%</t>
+          <t>53,85%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>25,46%</t>
+          <t>48,78%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19,61; 24,97</t>
+          <t>42,26; 48,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>22,12; 27,87</t>
+          <t>46,66; 52,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,63; 25,03</t>
+          <t>47,5; 54,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,83; 23,2</t>
+          <t>39,7; 46,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,17; 31,04</t>
+          <t>51,46; 57,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>30,83; 36,9</t>
+          <t>56,92; 63,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>25,87; 31,5</t>
+          <t>53,14; 59,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>27,16; 32,44</t>
+          <t>50,83; 56,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,2; 27,05</t>
+          <t>47,96; 52,63</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>27,49; 31,66</t>
+          <t>52,61; 57,39</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>23,44; 27,53</t>
+          <t>51,46; 56,18</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>23,63; 27,41</t>
+          <t>46,39; 51,06</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>18,63%</t>
+          <t>42,41%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>22,28%</t>
+          <t>46,08%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>18,86%</t>
+          <t>46,2%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>39,21%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>26,55%</t>
+          <t>53,17%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>32,68%</t>
+          <t>57,79%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>26,77%</t>
+          <t>53,07%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>29,87%</t>
+          <t>50,12%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>22,65%</t>
+          <t>47,87%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>27,58%</t>
+          <t>52,04%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>22,9%</t>
+          <t>49,71%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>25,18%</t>
+          <t>44,99%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,28; 20,03</t>
+          <t>40,69; 44,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>20,91; 23,98</t>
+          <t>44,24; 47,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,53; 20,15</t>
+          <t>44,32; 47,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,46; 21,44</t>
+          <t>36,85; 41,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>25,0; 28,09</t>
+          <t>51,52; 54,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>31,02; 34,14</t>
+          <t>56,09; 59,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>25,2; 28,42</t>
+          <t>51,28; 54,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>27,28; 36,69</t>
+          <t>47,94; 55,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>21,59; 23,76</t>
+          <t>46,56; 49,1</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>26,56; 28,73</t>
+          <t>50,9; 53,25</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>21,96; 24,05</t>
+          <t>48,46; 50,91</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>23,65; 29,06</t>
+          <t>43,35; 47,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/MCS12_SP_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R2-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>23,84%</t>
+          <t>38,02%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>57,38%</t>
+          <t>49,77%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>44,09%</t>
+          <t>48,64%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>38,02%</t>
+          <t>38,65%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>32,48%</t>
+          <t>47,72%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>60,51%</t>
+          <t>66,5%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>55,92%</t>
+          <t>56,63%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>40,82%</t>
+          <t>46,94%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>28,11%</t>
+          <t>42,85%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>58,92%</t>
+          <t>58,1%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>49,92%</t>
+          <t>52,63%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>39,6%</t>
+          <t>42,93%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,55; 32,79</t>
+          <t>34,11; 41,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>48,23; 66,6</t>
+          <t>45,47; 53,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>34,63; 54,24</t>
+          <t>44,43; 52,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>28,46; 48,25</t>
+          <t>34,77; 42,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>25,23; 41,2</t>
+          <t>44,14; 51,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>50,68; 69,71</t>
+          <t>62,58; 69,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>46,33; 64,44</t>
+          <t>53,0; 60,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>33,65; 47,97</t>
+          <t>43,69; 50,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,59; 33,98</t>
+          <t>40,19; 45,35</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>52,34; 65,42</t>
+          <t>55,23; 60,45</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>43,43; 55,68</t>
+          <t>49,65; 55,06</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>34,07; 45,58</t>
+          <t>40,44; 45,36</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>39,52%</t>
+          <t>43,07%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>44,08%</t>
+          <t>47,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>47,78%</t>
+          <t>46,51%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>37,21%</t>
+          <t>32,95%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>49,93%</t>
+          <t>56,44%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>61,89%</t>
+          <t>58,05%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>55,04%</t>
+          <t>54,05%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>45,25%</t>
+          <t>48,71%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>44,71%</t>
+          <t>49,78%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>52,97%</t>
+          <t>52,99%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>51,41%</t>
+          <t>50,32%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>41,38%</t>
+          <t>39,96%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>35,21; 43,2</t>
+          <t>39,69; 46,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>39,44; 47,94</t>
+          <t>44,8; 51,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>43,46; 52,09</t>
+          <t>43,33; 49,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>32,81; 41,6</t>
+          <t>17,13; 42,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>45,94; 53,99</t>
+          <t>53,16; 59,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>57,7; 65,88</t>
+          <t>54,96; 61,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>50,68; 59,2</t>
+          <t>50,56; 57,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>41,79; 48,7</t>
+          <t>45,8; 51,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>41,76; 47,4</t>
+          <t>47,55; 52,27</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>49,94; 55,82</t>
+          <t>50,63; 55,13</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>48,55; 54,51</t>
+          <t>47,94; 52,36</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>38,53; 44,05</t>
+          <t>27,58; 45,83</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>42,86%</t>
+          <t>43,69%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>44,14%</t>
+          <t>45,43%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>44,69%</t>
+          <t>42,68%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>36,41%</t>
+          <t>40,58%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>55,86%</t>
+          <t>54,79%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>54,59%</t>
+          <t>59,26%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>52,5%</t>
+          <t>48,85%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>46,41%</t>
+          <t>59,54%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>49,38%</t>
+          <t>49,26%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>49,4%</t>
+          <t>52,43%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>48,63%</t>
+          <t>45,82%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>41,45%</t>
+          <t>51,39%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>39,45; 46,06</t>
+          <t>39,69; 47,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>40,87; 47,49</t>
+          <t>41,44; 49,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>41,51; 48,07</t>
+          <t>39,18; 46,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>29,54; 40,2</t>
+          <t>36,39; 45,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>52,53; 59,26</t>
+          <t>50,85; 58,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>51,34; 57,52</t>
+          <t>55,64; 62,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>48,92; 55,5</t>
+          <t>45,22; 52,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>43,55; 49,27</t>
+          <t>46,59; 77,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>47,12; 51,83</t>
+          <t>46,72; 52,16</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>47,07; 51,61</t>
+          <t>49,75; 55,2</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>46,34; 50,72</t>
+          <t>43,3; 48,44</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>38,02; 43,85</t>
+          <t>43,26; 68,75</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>42,96%</t>
+          <t>46,86%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>44,17%</t>
+          <t>52,51%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>41,55%</t>
+          <t>54,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>39,94%</t>
+          <t>44,48%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>53,15%</t>
+          <t>55,95%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>55,57%</t>
+          <t>64,46%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>47,49%</t>
+          <t>58,98%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>54,6%</t>
+          <t>57,58%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>48,08%</t>
+          <t>51,63%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>49,94%</t>
+          <t>58,8%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>44,57%</t>
+          <t>56,63%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>47,94%</t>
+          <t>51,57%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>38,88; 46,77</t>
+          <t>43,41; 49,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>40,31; 47,97</t>
+          <t>49,57; 55,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>38,02; 45,15</t>
+          <t>50,7; 57,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>35,7; 44,14</t>
+          <t>41,0; 48,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,31; 57,15</t>
+          <t>52,59; 58,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>51,85; 59,24</t>
+          <t>61,52; 67,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>43,86; 50,77</t>
+          <t>55,83; 61,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>46,8; 69,01</t>
+          <t>53,68; 65,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>45,67; 51,05</t>
+          <t>49,16; 53,85</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>47,04; 52,76</t>
+          <t>56,41; 61,04</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>42,08; 47,18</t>
+          <t>54,32; 58,83</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>43,12; 60,58</t>
+          <t>48,71; 57,67</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>45,58%</t>
+          <t>43,22%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>49,55%</t>
+          <t>49,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>50,93%</t>
+          <t>48,15%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>42,95%</t>
+          <t>38,64%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>54,71%</t>
+          <t>54,18%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>59,99%</t>
+          <t>61,86%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>56,48%</t>
+          <t>54,84%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>53,68%</t>
+          <t>53,8%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>50,37%</t>
+          <t>48,79%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>55,04%</t>
+          <t>55,55%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>53,85%</t>
+          <t>51,57%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>48,78%</t>
+          <t>46,43%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>42,26; 48,61</t>
+          <t>41,5; 44,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>46,66; 52,9</t>
+          <t>47,21; 50,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>47,5; 54,56</t>
+          <t>46,25; 49,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>39,7; 46,25</t>
+          <t>29,1; 42,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>51,46; 57,66</t>
+          <t>52,49; 55,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>56,92; 63,13</t>
+          <t>60,19; 63,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>53,14; 59,36</t>
+          <t>52,98; 56,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>50,83; 56,83</t>
+          <t>49,96; 62,24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>47,96; 52,63</t>
+          <t>47,5; 49,99</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>52,61; 57,39</t>
+          <t>54,36; 56,72</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>51,46; 56,18</t>
+          <t>50,28; 52,76</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>46,39; 51,06</t>
+          <t>42,13; 50,57</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>42,41%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>46,08%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>46,2%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>39,21%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>53,17%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>57,79%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>53,07%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>50,12%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>47,87%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>52,04%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>49,71%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>44,99%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>40,69; 44,15</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>44,24; 47,94</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>44,32; 47,76</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>36,85; 41,2</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>51,52; 54,91</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>56,09; 59,58</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>51,28; 54,76</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>47,94; 55,42</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>46,56; 49,1</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>50,9; 53,25</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>48,46; 50,91</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>43,35; 47,51</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/MCS12_SP_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R2-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>34,11; 41,62</t>
+          <t>33,95; 41,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>45,47; 53,46</t>
+          <t>46,07; 53,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>44,43; 52,33</t>
+          <t>44,55; 52,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>34,77; 42,89</t>
+          <t>34,54; 43,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>44,14; 51,67</t>
+          <t>44,03; 51,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>62,58; 69,86</t>
+          <t>62,67; 70,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>53,0; 60,65</t>
+          <t>53,0; 60,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>43,69; 50,19</t>
+          <t>44,0; 49,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>40,19; 45,35</t>
+          <t>40,08; 45,41</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>55,23; 60,45</t>
+          <t>55,13; 60,66</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>49,65; 55,06</t>
+          <t>49,9; 55,39</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>40,44; 45,36</t>
+          <t>40,22; 45,48</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>39,69; 46,29</t>
+          <t>39,85; 46,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>44,8; 51,36</t>
+          <t>44,49; 51,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>43,33; 49,85</t>
+          <t>43,49; 49,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,13; 42,67</t>
+          <t>17,82; 42,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>53,16; 59,95</t>
+          <t>53,14; 59,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>54,96; 61,21</t>
+          <t>54,9; 61,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>50,56; 57,08</t>
+          <t>50,81; 57,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>45,8; 51,63</t>
+          <t>45,84; 51,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>47,55; 52,27</t>
+          <t>47,4; 52,01</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>50,63; 55,13</t>
+          <t>50,86; 55,5</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>47,94; 52,36</t>
+          <t>48,1; 52,5</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>27,58; 45,83</t>
+          <t>26,9; 45,77</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>39,69; 47,46</t>
+          <t>39,75; 47,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>41,44; 49,2</t>
+          <t>41,76; 49,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>39,18; 46,35</t>
+          <t>39,33; 46,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>36,39; 45,09</t>
+          <t>36,54; 44,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>50,85; 58,69</t>
+          <t>50,91; 58,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>55,64; 62,95</t>
+          <t>55,57; 62,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>45,22; 52,25</t>
+          <t>45,49; 52,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>46,59; 77,15</t>
+          <t>46,67; 78,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>46,72; 52,16</t>
+          <t>46,57; 52,13</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>49,75; 55,2</t>
+          <t>49,7; 54,98</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>43,3; 48,44</t>
+          <t>43,2; 48,4</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>43,26; 68,75</t>
+          <t>43,23; 68,25</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>43,41; 49,89</t>
+          <t>43,86; 50,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>49,57; 55,71</t>
+          <t>49,2; 55,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>50,7; 57,79</t>
+          <t>50,97; 57,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>41,0; 48,11</t>
+          <t>40,84; 48,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>52,59; 58,77</t>
+          <t>52,99; 59,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>61,52; 67,4</t>
+          <t>61,28; 67,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>55,83; 61,81</t>
+          <t>55,94; 61,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>53,68; 65,62</t>
+          <t>53,83; 66,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>49,16; 53,85</t>
+          <t>49,31; 53,65</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>56,41; 61,04</t>
+          <t>56,25; 61,11</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>54,32; 58,83</t>
+          <t>54,41; 58,92</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>48,71; 57,67</t>
+          <t>48,84; 56,53</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>41,5; 44,95</t>
+          <t>41,41; 44,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>47,21; 50,81</t>
+          <t>47,28; 50,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>46,25; 49,64</t>
+          <t>46,4; 49,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>29,1; 42,17</t>
+          <t>28,37; 42,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>52,49; 55,96</t>
+          <t>52,47; 55,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>60,19; 63,62</t>
+          <t>60,19; 63,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>52,98; 56,51</t>
+          <t>53,1; 56,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>49,96; 62,24</t>
+          <t>50,04; 61,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>47,5; 49,99</t>
+          <t>47,59; 50,01</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>54,36; 56,72</t>
+          <t>54,27; 56,69</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>50,28; 52,76</t>
+          <t>50,42; 52,82</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>42,13; 50,57</t>
+          <t>41,95; 50,83</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población por debajo de la mediana de la puntuación del componente de salud mental (SF12)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>599</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>770</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>942</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>263842</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>350142</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>328189</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>243583</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>328511</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>463543</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>381042</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>314459</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>592353</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>813685</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>709232</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>558042</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>235633; 288844</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>324053; 376629</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>300620; 353802</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>217639; 271037</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>303112; 354501</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>436815; 488794</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>356623; 406775</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>294772; 334036</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>554048; 627686</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>772083; 849610</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>672505; 746482</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>522879; 591245</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>795</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>986</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>971</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1241</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>414248</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>487160</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>475548</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>391503</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>546597</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>599137</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>563684</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>464161</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>960845</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1086297</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1039232</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>855664</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>383323; 446749</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>452860; 521673</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>444673; 507845</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>211768; 506478</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>514610; 579184</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>566643; 631274</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>529954; 597485</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>436736; 491344</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>914958; 1003846</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1042662; 1137784</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>993415; 1084291</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>575942; 980036</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>661</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>735</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>811</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>296472</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>344188</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>324207</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>284976</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>374669</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>460575</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>383490</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>554651</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>671141</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>804763</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>707697</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>839626</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>269698; 323841</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>316416; 374182</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>298762; 352911</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>256659; 315230</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>348117; 399941</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>431859; 487484</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>357064; 413195</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>434777; 728289</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>634418; 710226</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>762822; 843906</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>667316; 747609</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>706367; 1115244</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>643</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>879</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1067</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1359</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>441550</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>497703</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>506486</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>410482</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>581121</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>678068</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>615640</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>627160</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1022671</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1175771</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1122126</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1037641</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>413238; 471504</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>466271; 529818</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>477873; 537082</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>376904; 445197</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>550355; 612806</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>644588; 710681</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>583919; 646431</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>586370; 719329</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>976670; 1062648</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1124888; 1221982</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1078004; 1167391</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>982793; 1137565</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1382</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1569</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1562</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1520</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1782</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1829</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2833</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3164</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>3607</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3391</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1416113</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1679193</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1634431</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1330544</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1830898</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2201324</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1943857</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1960429</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>3247011</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>3880516</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>3578287</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>3290973</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1356877; 1473889</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1620190; 1738378</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1575082; 1691855</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>976902; 1447636</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1773088; 1890301</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2141823; 2259257</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1882208; 2005086</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1823309; 2243155</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3167492; 3328852</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>3790831; 3959656</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3498469; 3664912</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2972898; 3602461</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>